--- a/CREST syndrome_vs_Eosinophilic esophagitis.xlsx
+++ b/CREST syndrome_vs_Eosinophilic esophagitis.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="History of Present Illness (the" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Medical and Surgical History, i" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Social History, Health Behavior" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vitals and Physical Exam" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test Results (labs, imaging, pr" sheetId="5" state="visible" r:id="rId5"/>
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Progressive skin thickening and tightening</t>
+          <t>Progressive skin thickening and tightening, particularly on the fingers and face</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is characteristic of CREST syndrome, indicating sclerodactyly, which is not a feature of Eosinophilic esophagitis.</t>
+          <t>This finding is characteristic of sclerodactyly, a hallmark of CREST syndrome, which is not typically seen in Eosinophilic esophagitis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Food impaction episodes</t>
+          <t>History of food allergies or atopic conditions</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Frequent episodes of food impaction are highly suggestive of Eosinophilic esophagitis, as this condition is characterized by esophageal dysfunction due to eosinophilic infiltration.</t>
+          <t>A history of food allergies or atopic conditions is more indicative of Eosinophilic esophagitis, which is often associated with allergic responses, unlike CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon</t>
+          <t>Presence of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The presence of Raynaud's phenomenon, which involves episodes of reduced blood flow to the fingers and toes, is a hallmark of CREST syndrome and not typically associated with Eosinophilic esophagitis.</t>
+          <t>Raynaud's phenomenon, characterized by episodic color changes in the fingers and toes in response to cold or stress, is a common feature of CREST syndrome and not associated with Eosinophilic esophagitis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of atopic conditions (e.g., asthma, allergic rhinitis)</t>
+          <t>Symptoms of esophageal pain or discomfort after eating</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A history of atopic conditions is more commonly associated with Eosinophilic esophagitis, indicating an allergic or immune-mediated process.</t>
+          <t>Esophageal pain or discomfort, particularly related to food intake, is a common symptom of Eosinophilic esophagitis, while CREST syndrome typically presents with motility issues rather than pain.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dysphagia with a history of esophageal motility issues</t>
+          <t>Gastrointestinal symptoms such as dysphagia (difficulty swallowing) occurring alongside esophageal motility issues</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While dysphagia can occur in both conditions, esophageal motility issues are more indicative of CREST syndrome due to its impact on connective tissue.</t>
+          <t>While both conditions can cause dysphagia, the esophageal motility issues in CREST syndrome are due to smooth muscle involvement, which is distinct from the inflammatory nature of Eosinophilic esophagitis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Symptoms triggered by specific food intake</t>
+          <t>Nausea and vomiting after meals</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Symptoms that correlate with the ingestion of certain foods are indicative of Eosinophilic esophagitis, which is often food-related, unlike CREST syndrome.</t>
+          <t>Nausea and vomiting can be more prevalent in Eosinophilic esophagitis due to food impaction or esophageal inflammation, which is less common in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension symptoms (e.g., exertional dyspnea)</t>
+          <t>Pulmonary hypertension symptoms, such as exertional dyspnea</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Symptoms of pulmonary hypertension are more commonly associated with CREST syndrome, indicating systemic involvement, unlike Eosinophilic esophagitis.</t>
+          <t>Pulmonary hypertension is a serious complication of CREST syndrome, whereas Eosinophilic esophagitis does not typically lead to pulmonary complications.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Chronic heartburn or gastroesophageal reflux disease (GERD) symptoms</t>
+          <t>Dysphagia that is intermittent and related to specific foods</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Chronic heartburn or GERD symptoms are more typical of Eosinophilic esophagitis, which can mimic reflux but is due to eosinophilic inflammation.</t>
+          <t>Intermittent dysphagia that correlates with specific food types is more characteristic of Eosinophilic esophagitis, while CREST syndrome typically presents with more persistent dysphagia due to motility issues.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gastrointestinal symptoms with a history of reflux and constipation</t>
+          <t>Calcinosis cutis (calcium deposits in the skin)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gastrointestinal symptoms in CREST syndrome often include reflux and constipation due to motility disorders, which are less specific to Eosinophilic esophagitis.</t>
+          <t>Calcinosis is a specific finding in CREST syndrome and is not a feature of Eosinophilic esophagitis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Age of onset typically in childhood or young adulthood</t>
+          <t>Recent increase in symptoms correlating with dietary changes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Eosinophilic esophagitis often presents in younger individuals, while CREST syndrome typically has an onset in middle-aged adults.</t>
+          <t>An increase in symptoms following dietary changes suggests an allergic or inflammatory response typical of Eosinophilic esophagitis, contrasting with the chronic nature of symptoms in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -580,14 +580,147 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Dx A</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Dx A</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Dx B</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Dx B</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>History of sclerodactyly</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sclerodactyly, or thickening and tightening of the skin on the fingers, is a hallmark feature of CREST syndrome and is not associated with Eosinophilic esophagitis.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>History of food allergies</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Food allergies are commonly associated with Eosinophilic esophagitis, whereas they are not a feature of CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Presence of Raynaud's phenomenon</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Raynaud's phenomenon, characterized by episodic vasospasm of the fingers and toes, is commonly seen in CREST syndrome and is not a feature of Eosinophilic esophagitis.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Use of proton pump inhibitors (PPIs)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PPIs are often used in the management of Eosinophilic esophagitis to reduce acid exposure, while they are not typically used for CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gastrointestinal motility disorders</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gastrointestinal motility issues, such as esophageal dysmotility, are prevalent in CREST syndrome due to connective tissue involvement, whereas Eosinophilic esophagitis primarily presents with inflammation.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>History of atopic conditions (e.g., asthma, eczema)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Atopic conditions are frequently seen in patients with Eosinophilic esophagitis, which is not characteristic of CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>History of pulmonary hypertension</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pulmonary hypertension can occur in CREST syndrome due to vascular changes, while it is not a typical complication of Eosinophilic esophagitis.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Dysphagia (difficulty swallowing)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Dysphagia is a common symptom of Eosinophilic esophagitis due to esophageal inflammation, while it is less specific to CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Use of immunosuppressive medications</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Patients with CREST syndrome may be treated with immunosuppressive medications for autoimmune symptoms, which is less common in Eosinophilic esophagitis management.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>History of eosinophilia</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Eosinophilia, or elevated eosinophil counts, is a key laboratory finding in Eosinophilic esophagitis, which is not typically present in CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -636,7 +769,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A family history of systemic sclerosis or other autoimmune diseases supports CREST syndrome, which is a subset of systemic sclerosis.</t>
+          <t>A family history of systemic sclerosis or other autoimmune diseases supports the diagnosis of CREST syndrome, which is a subset of systemic sclerosis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -646,7 +779,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Eosinophilic esophagitis is often associated with atopy, and a family history of atopic conditions supports this diagnosis.</t>
+          <t>Eosinophilic esophagitis is often associated with atopic conditions, and a family history of such conditions supports this diagnosis.</t>
         </is>
       </c>
     </row>
@@ -668,7 +801,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Patients with Eosinophilic esophagitis often have food allergies or dietary restrictions, which are less common in CREST syndrome.</t>
+          <t>Patients with Eosinophilic esophagitis often have food allergies or intolerances, which can lead to dietary restrictions.</t>
         </is>
       </c>
     </row>
@@ -680,17 +813,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a common feature of CREST syndrome, and its familial occurrence suggests a genetic predisposition.</t>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome, and its familial occurrence can indicate a genetic predisposition to the condition.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of frequent gastrointestinal symptoms (e.g., dysphagia, food impaction)</t>
+          <t>History of frequent gastroesophageal reflux disease (GERD) symptoms</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Frequent gastrointestinal symptoms are characteristic of Eosinophilic esophagitis, while they are not typical for CREST syndrome.</t>
+          <t>GERD symptoms are common in patients with Eosinophilic esophagitis, and a history of these symptoms may favor this diagnosis.</t>
         </is>
       </c>
     </row>
@@ -702,7 +835,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Smoking has been associated with the development of autoimmune diseases, including CREST syndrome, while it is less relevant for Eosinophilic esophagitis.</t>
+          <t>Smoking has been associated with various autoimmune diseases, including CREST syndrome, and may increase the likelihood of its development.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -712,7 +845,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A family history of eosinophilic disorders supports the diagnosis of Eosinophilic esophagitis, which is less likely in CREST syndrome.</t>
+          <t>A family history of eosinophilic disorders can indicate a genetic predisposition to Eosinophilic esophagitis.</t>
         </is>
       </c>
     </row>
@@ -724,7 +857,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gastrointestinal motility issues can be associated with CREST syndrome, indicating a familial pattern that is less common in Eosinophilic esophagitis.</t>
+          <t>Gastrointestinal motility issues are common in CREST syndrome, and a family history may suggest a genetic component to the condition.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -734,7 +867,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Environmental allergies are commonly associated with Eosinophilic esophagitis, indicating a predisposition that is not typically seen in CREST syndrome.</t>
+          <t>Environmental allergies are often associated with Eosinophilic esophagitis, and a history of such allergies supports this diagnosis.</t>
         </is>
       </c>
     </row>
@@ -797,7 +930,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Elevated eosinophil count is a key laboratory finding in Eosinophilic esophagitis, which is not a feature of CREST syndrome.</t>
+          <t>Elevated eosinophil count is a key laboratory finding in Eosinophilic esophagitis, which is not typically present in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -819,7 +952,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Patients with Eosinophilic esophagitis often present with food impaction due to esophageal strictures, which is not typical in CREST syndrome.</t>
+          <t>Patients with Eosinophilic esophagitis often present with food impaction due to esophageal inflammation, which is not a feature of CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -841,7 +974,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The presence of atopic dermatitis or other allergic conditions is more common in Eosinophilic esophagitis, indicating an allergic etiology.</t>
+          <t>The presence of atopic dermatitis or other allergic conditions is more common in Eosinophilic esophagitis, indicating an allergic etiology, unlike CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -863,7 +996,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Chest pain associated with swallowing is more indicative of Eosinophilic esophagitis due to esophageal inflammation, unlike the pain seen in CREST syndrome.</t>
+          <t>Chest pain that occurs specifically with swallowing is more indicative of Eosinophilic esophagitis due to esophageal inflammation, rather than CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -885,7 +1018,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>These findings are often associated with Eosinophilic esophagitis due to underlying allergic mechanisms, which are not present in CREST syndrome.</t>
+          <t>Symptoms of nasal congestion or allergic rhinitis are more commonly associated with Eosinophilic esophagitis, reflecting its allergic nature, unlike CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -960,7 +1093,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The presence of anti-centromere antibodies is highly specific for CREST syndrome and is not typically found in Eosinophilic esophagitis.</t>
+          <t>Anti-centromere antibodies are highly specific for CREST syndrome and are not typically present in Eosinophilic esophagitis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -970,7 +1103,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>An elevated eosinophil count supports the diagnosis of Eosinophilic esophagitis, whereas it is not a typical finding in CREST syndrome.</t>
+          <t>An elevated eosinophil count is indicative of Eosinophilic esophagitis and is not typically associated with CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -987,12 +1120,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Endoscopic findings of esophageal rings or strictures</t>
+          <t>Response to dietary elimination</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The presence of esophageal rings or strictures is characteristic of Eosinophilic esophagitis and not associated with CREST syndrome.</t>
+          <t>Improvement of symptoms with dietary elimination is characteristic of Eosinophilic esophagitis, while CREST syndrome does not respond to dietary changes.</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1137,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Decreased peristalsis is indicative of esophageal involvement in CREST syndrome, while Eosinophilic esophagitis typically shows normal motility.</t>
+          <t>Decreased peristalsis is associated with esophageal involvement in CREST syndrome, while Eosinophilic esophagitis typically shows normal motility.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Negative autoantibody panel</t>
+          <t>Endoscopic findings of esophageal rings or strictures</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A negative autoantibody panel would suggest a non-autoimmune etiology, favoring Eosinophilic esophagitis over CREST syndrome.</t>
+          <t>Esophageal rings or strictures are common in Eosinophilic esophagitis and are not features of CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -1031,12 +1164,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Response to dietary elimination</t>
+          <t>Normal or mildly abnormal esophageal motility</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Improvement of symptoms with dietary elimination supports Eosinophilic esophagitis, while CREST syndrome does not typically respond to dietary changes.</t>
+          <t>Eosinophilic esophagitis typically shows normal motility, contrasting with the motility abnormalities seen in CREST syndrome.</t>
         </is>
       </c>
     </row>
